--- a/test/panalysis/kieker/evaluation.xlsx
+++ b/test/panalysis/kieker/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>test name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>analysis.throughput</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>avg (µs)</t>
   </si>
   <si>
@@ -61,16 +58,13 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>nie-work</t>
+  </si>
+  <si>
+    <t>panalysis.throughput (timestamp)</t>
+  </si>
+  <si>
+    <t>analysis.throughput (timestamp)</t>
   </si>
 </sst>
 </file>
@@ -112,14 +106,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -135,12 +129,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K5"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PC"/>
     <tableColumn id="2" name="test name"/>
-    <tableColumn id="3" name="NUM_OBJECTS_TO_CREATE" dataDxfId="1"/>
+    <tableColumn id="3" name="NUM_OBJECTS_TO_CREATE" dataDxfId="0"/>
     <tableColumn id="4" name="NumNoopFilters"/>
     <tableColumn id="5" name="avg (µs)"/>
     <tableColumn id="6" name="0% (µs)"/>
@@ -444,13 +438,13 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -462,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -474,30 +468,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -532,7 +526,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -566,10 +560,74 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <v>181</v>
+      </c>
+      <c r="F4">
+        <v>170</v>
+      </c>
+      <c r="G4">
+        <v>172</v>
+      </c>
+      <c r="H4">
+        <v>173</v>
+      </c>
+      <c r="I4">
+        <v>180</v>
+      </c>
+      <c r="J4">
+        <v>4296</v>
+      </c>
+      <c r="K4">
+        <v>421</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <v>378</v>
+      </c>
+      <c r="F5">
+        <v>356</v>
+      </c>
+      <c r="G5">
+        <v>359</v>
+      </c>
+      <c r="H5">
+        <v>362</v>
+      </c>
+      <c r="I5">
+        <v>380</v>
+      </c>
+      <c r="J5">
+        <v>1837</v>
+      </c>
+      <c r="K5">
+        <v>454</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>

--- a/test/panalysis/kieker/evaluation.xlsx
+++ b/test/panalysis/kieker/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>test name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>analysis.throughput (timestamp)</t>
+  </si>
+  <si>
+    <t>jwa-work</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -129,8 +132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K11"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PC"/>
     <tableColumn id="2" name="test name"/>
@@ -435,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -521,7 +524,7 @@
         <v>1864</v>
       </c>
       <c r="K2">
-        <v>292</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -556,7 +559,7 @@
         <v>1494</v>
       </c>
       <c r="K3">
-        <v>227</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -591,7 +594,7 @@
         <v>4296</v>
       </c>
       <c r="K4">
-        <v>421</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -626,14 +629,218 @@
         <v>1837</v>
       </c>
       <c r="K5">
-        <v>454</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>277</v>
+      </c>
+      <c r="F6">
+        <v>267</v>
+      </c>
+      <c r="G6">
+        <v>269</v>
+      </c>
+      <c r="H6">
+        <v>270</v>
+      </c>
+      <c r="I6">
+        <v>271</v>
+      </c>
+      <c r="J6">
+        <v>1812</v>
+      </c>
+      <c r="K6">
+        <v>0.42499999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>289</v>
+      </c>
+      <c r="F7">
+        <v>271</v>
+      </c>
+      <c r="G7">
+        <v>274</v>
+      </c>
+      <c r="H7">
+        <v>275</v>
+      </c>
+      <c r="I7">
+        <v>276</v>
+      </c>
+      <c r="J7">
+        <v>4869</v>
+      </c>
+      <c r="K7">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>800</v>
+      </c>
+      <c r="E8">
+        <v>284</v>
+      </c>
+      <c r="F8">
+        <v>266</v>
+      </c>
+      <c r="G8">
+        <v>268</v>
+      </c>
+      <c r="H8">
+        <v>270</v>
+      </c>
+      <c r="I8">
+        <v>275</v>
+      </c>
+      <c r="J8">
+        <v>3439</v>
+      </c>
+      <c r="K8">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>596</v>
+      </c>
+      <c r="F9">
+        <v>580</v>
+      </c>
+      <c r="G9">
+        <v>582</v>
+      </c>
+      <c r="H9">
+        <v>583</v>
+      </c>
+      <c r="I9">
+        <v>584</v>
+      </c>
+      <c r="J9">
+        <v>18968</v>
+      </c>
+      <c r="K9">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>613</v>
+      </c>
+      <c r="F10">
+        <v>595</v>
+      </c>
+      <c r="G10">
+        <v>599</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>601</v>
+      </c>
+      <c r="J10">
+        <v>11618</v>
+      </c>
+      <c r="K10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11">
+        <v>584</v>
+      </c>
+      <c r="F11">
+        <v>571</v>
+      </c>
+      <c r="G11">
+        <v>573</v>
+      </c>
+      <c r="H11">
+        <v>573</v>
+      </c>
+      <c r="I11">
+        <v>574</v>
+      </c>
+      <c r="J11">
+        <v>28626</v>
+      </c>
+      <c r="K11">
+        <v>1.593</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/panalysis/kieker/evaluation.xlsx
+++ b/test/panalysis/kieker/evaluation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21735" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>test name</t>
   </si>
@@ -25,12 +26,6 @@
     <t>NumNoopFilters</t>
   </si>
   <si>
-    <t>panalysis.throughput</t>
-  </si>
-  <si>
-    <t>analysis.throughput</t>
-  </si>
-  <si>
     <t>avg (µs)</t>
   </si>
   <si>
@@ -68,6 +63,9 @@
   </si>
   <si>
     <t>jwa-work</t>
+  </si>
+  <si>
+    <t>chw-work</t>
   </si>
 </sst>
 </file>
@@ -109,7 +107,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -132,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K13"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PC"/>
     <tableColumn id="2" name="test name"/>
@@ -152,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,13 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -459,7 +457,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -471,33 +469,33 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
@@ -527,12 +525,12 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>100000</v>
@@ -562,283 +560,326 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <v>185</v>
+      </c>
+      <c r="F4">
+        <v>145</v>
+      </c>
+      <c r="G4">
+        <v>146</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>157</v>
+      </c>
+      <c r="J4">
+        <v>2677</v>
+      </c>
+      <c r="K4">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>170</v>
+      </c>
+      <c r="G6">
+        <v>172</v>
+      </c>
+      <c r="H6">
+        <v>173</v>
+      </c>
+      <c r="I6">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <v>4296</v>
+      </c>
+      <c r="K6">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>356</v>
+      </c>
+      <c r="G7">
+        <v>359</v>
+      </c>
+      <c r="H7">
+        <v>362</v>
+      </c>
+      <c r="I7">
+        <v>380</v>
+      </c>
+      <c r="J7">
+        <v>1837</v>
+      </c>
+      <c r="K7">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>800</v>
-      </c>
-      <c r="E4">
-        <v>181</v>
-      </c>
-      <c r="F4">
-        <v>170</v>
-      </c>
-      <c r="G4">
-        <v>172</v>
-      </c>
-      <c r="H4">
-        <v>173</v>
-      </c>
-      <c r="I4">
-        <v>180</v>
-      </c>
-      <c r="J4">
-        <v>4296</v>
-      </c>
-      <c r="K4">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D5">
-        <v>800</v>
-      </c>
-      <c r="E5">
-        <v>378</v>
-      </c>
-      <c r="F5">
-        <v>356</v>
-      </c>
-      <c r="G5">
-        <v>359</v>
-      </c>
-      <c r="H5">
-        <v>362</v>
-      </c>
-      <c r="I5">
-        <v>380</v>
-      </c>
-      <c r="J5">
-        <v>1837</v>
-      </c>
-      <c r="K5">
-        <v>0.45400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D6">
-        <v>800</v>
-      </c>
-      <c r="E6">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>800</v>
+      </c>
+      <c r="E8">
         <v>277</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>267</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>269</v>
-      </c>
-      <c r="H6">
-        <v>270</v>
-      </c>
-      <c r="I6">
-        <v>271</v>
-      </c>
-      <c r="J6">
-        <v>1812</v>
-      </c>
-      <c r="K6">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D7">
-        <v>800</v>
-      </c>
-      <c r="E7">
-        <v>289</v>
-      </c>
-      <c r="F7">
-        <v>271</v>
-      </c>
-      <c r="G7">
-        <v>274</v>
-      </c>
-      <c r="H7">
-        <v>275</v>
-      </c>
-      <c r="I7">
-        <v>276</v>
-      </c>
-      <c r="J7">
-        <v>4869</v>
-      </c>
-      <c r="K7">
-        <v>0.78400000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D8">
-        <v>800</v>
-      </c>
-      <c r="E8">
-        <v>284</v>
-      </c>
-      <c r="F8">
-        <v>266</v>
-      </c>
-      <c r="G8">
-        <v>268</v>
       </c>
       <c r="H8">
         <v>270</v>
       </c>
       <c r="I8">
+        <v>271</v>
+      </c>
+      <c r="J8">
+        <v>1812</v>
+      </c>
+      <c r="K8">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>289</v>
+      </c>
+      <c r="F9">
+        <v>271</v>
+      </c>
+      <c r="G9">
+        <v>274</v>
+      </c>
+      <c r="H9">
         <v>275</v>
       </c>
-      <c r="J8">
+      <c r="I9">
+        <v>276</v>
+      </c>
+      <c r="J9">
+        <v>4869</v>
+      </c>
+      <c r="K9">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>284</v>
+      </c>
+      <c r="F10">
+        <v>266</v>
+      </c>
+      <c r="G10">
+        <v>268</v>
+      </c>
+      <c r="H10">
+        <v>270</v>
+      </c>
+      <c r="I10">
+        <v>275</v>
+      </c>
+      <c r="J10">
         <v>3439</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-      <c r="E9">
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11">
         <v>596</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>580</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>582</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>583</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>584</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>18968</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>1.1830000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D10">
-        <v>800</v>
-      </c>
-      <c r="E10">
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
+      </c>
+      <c r="E12">
         <v>613</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>595</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>599</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>600</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>601</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>11618</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D11">
-        <v>800</v>
-      </c>
-      <c r="E11">
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>800</v>
+      </c>
+      <c r="E13">
         <v>584</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>571</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>573</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>573</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>574</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>28626</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>1.593</v>
       </c>
     </row>

--- a/test/panalysis/kieker/evaluation.xlsx
+++ b/test/panalysis/kieker/evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>test name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>chw-work</t>
+  </si>
+  <si>
+    <t>optimierungen</t>
+  </si>
+  <si>
+    <t>put+take</t>
   </si>
 </sst>
 </file>
@@ -130,9 +136,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K13"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:L13"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="PC"/>
     <tableColumn id="2" name="test name"/>
     <tableColumn id="3" name="NUM_OBJECTS_TO_CREATE" dataDxfId="0"/>
@@ -144,6 +150,7 @@
     <tableColumn id="9" name="75% (µs)"/>
     <tableColumn id="10" name="100% (µs)"/>
     <tableColumn id="11" name="confidenceWidth (in µs)"/>
+    <tableColumn id="12" name="optimierungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +462,7 @@
     <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -489,8 +496,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -525,7 +535,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -560,7 +570,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -594,16 +604,49 @@
       <c r="K4">
         <v>1.486</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1">
         <v>100000</v>
       </c>
       <c r="D5">
         <v>800</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>634</v>
+      </c>
+      <c r="F5">
+        <v>453</v>
+      </c>
+      <c r="G5">
+        <v>475</v>
+      </c>
+      <c r="H5">
+        <v>493</v>
+      </c>
+      <c r="I5">
+        <v>564</v>
+      </c>
+      <c r="J5">
+        <v>3237</v>
+      </c>
+      <c r="K5">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -638,7 +681,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -673,7 +716,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -708,7 +751,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -743,7 +786,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -778,7 +821,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -813,7 +856,7 @@
         <v>1.1830000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -848,7 +891,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
